--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -715,6 +718,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1044,7 +1062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1147,7 +1165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1355,7 +1373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -1670,7 +1688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -1894,7 +1912,7 @@
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1981,7 +1999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>137</v>
       </c>
@@ -2088,7 +2106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>144</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -2298,7 +2316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>169</v>
       </c>
@@ -2510,7 +2528,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>176</v>
       </c>
@@ -2616,6 +2634,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK16">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$27</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="242">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -521,6 +521,185 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Basic.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Basic.code.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Basic.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.id</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Basic.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Basic.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Basic.subject</t>
@@ -901,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -910,7 +1089,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.94921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -937,7 +1116,7 @@
     <col min="25" max="25" width="44.41796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2338,23 +2517,19 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2402,7 +2577,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2414,29 +2589,29 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -2445,21 +2620,21 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>75</v>
       </c>
@@ -2495,42 +2670,42 @@
         <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2538,13 +2713,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2553,17 +2728,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>75</v>
@@ -2612,13 +2789,13 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
@@ -2627,14 +2804,1175 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="L19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK16">
+  <autoFilter ref="A1:AK27">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2644,7 +3982,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
+  <conditionalFormatting sqref="A2:AI26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -705,7 +705,7 @@
     <t>Basic.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-medication)
 </t>
   </si>
   <si>
@@ -3654,7 +3654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>220</v>
       </c>
@@ -3664,13 +3664,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-vp-vaccination-scheme.xlsx
+++ b/StructureDefinition-vp-vaccination-scheme.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
